--- a/biology/Zoologie/Amyciaea_albomaculata/Amyciaea_albomaculata.xlsx
+++ b/biology/Zoologie/Amyciaea_albomaculata/Amyciaea_albomaculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amyciaea albomaculata est une espèce d'araignées aranéomorphes de la famille des Thomisidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amyciaea albomaculata est une espèce d'araignées aranéomorphes de la famille des Thomisidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Australie et en Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Australie et en Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit plus particulièrement dans la forêt tropicale humide[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit plus particulièrement dans la forêt tropicale humide.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette araignée mesure en moyenne 7 mm pour les femelles et 6 mm pour les mâles[2].
-Elle est myrmécomorphe[3], de couleur verte, son allure globale rappelle celle des fourmis tisserandes qui sont ses proies ; on pense que cette ressemblance est un mimétisme destiné à ne pas alerter ses proies[2]. Le déguisement est complété par deux taches noires rondes sur l'abdomen figurant des yeux de fourmi.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette araignée mesure en moyenne 7 mm pour les femelles et 6 mm pour les mâles.
+Elle est myrmécomorphe, de couleur verte, son allure globale rappelle celle des fourmis tisserandes qui sont ses proies ; on pense que cette ressemblance est un mimétisme destiné à ne pas alerter ses proies. Le déguisement est complété par deux taches noires rondes sur l'abdomen figurant des yeux de fourmi.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De mœurs plutôt crépusculaires, elles se laissent pendre au bout d’un fil de soie ou s'accrochent à une brindille, à l'affût de leurs proies qui sont en grande partie des fourmis du genre Oecophylla, peut-être même exclusivement de Oecophylla smaragdina[2]. Elles se placent sur le trajet des colonnes de fourmis et se tiennent à leur support par les deux paires de pattes arrière, tandis que les deux premières paires de pattes sont tenues écartées, prêtes à saisir les proies[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De mœurs plutôt crépusculaires, elles se laissent pendre au bout d’un fil de soie ou s'accrochent à une brindille, à l'affût de leurs proies qui sont en grande partie des fourmis du genre Oecophylla, peut-être même exclusivement de Oecophylla smaragdina. Elles se placent sur le trajet des colonnes de fourmis et se tiennent à leur support par les deux paires de pattes arrière, tandis que les deux premières paires de pattes sont tenues écartées, prêtes à saisir les proies.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1874 : On some new genera and species of Araneidea. Annals and Magazine of Natural History, sér. 4, vol. 14, p. 169-183 (texte intégral).</t>
         </is>
